--- a/Level 9/Group E/Batch 1.xlsx
+++ b/Level 9/Group E/Batch 1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21260"/>
+    <workbookView windowWidth="25170" windowHeight="12510"/>
   </bookViews>
   <sheets>
-    <sheet name="Put and Call Price" sheetId="2" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Chart Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Stock Price</t>
   </si>
@@ -34,37 +31,99 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -72,30 +131,15 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +147,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -111,90 +170,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +198,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,133 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,37 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,24 +389,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -435,17 +407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -457,6 +418,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,153 +478,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -655,55 +645,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -734,10 +724,13 @@
           <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -745,21 +738,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="en-US"/>
               <a:t>Put and Call Price</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="line"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -775,6 +773,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -944,97 +954,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
                 <c:pt idx="0">
-                  <c:v>7.79200408370461e-36</c:v>
+                  <c:v>7.79200408370573e-36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.88963736615133e-32</c:v>
+                  <c:v>1.88963736615224e-32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.64204401197933e-29</c:v>
+                  <c:v>1.64204401197917e-29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.19302698109512e-27</c:v>
+                  <c:v>6.19302698109668e-27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.17207164939983e-24</c:v>
+                  <c:v>1.17207164939981e-24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24529432761711e-22</c:v>
+                  <c:v>1.24529432761695e-22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.11386665805116e-21</c:v>
+                  <c:v>8.1138666580525e-21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.47944138742287e-19</c:v>
+                  <c:v>3.47944138742241e-19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.03991305206702e-17</c:v>
+                  <c:v>1.03991305206695e-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.27041898475599e-16</c:v>
+                  <c:v>2.27041898475594e-16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.76503371760478e-15</c:v>
+                  <c:v>3.76503371760432e-15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.89963905171334e-14</c:v>
+                  <c:v>4.89963905171338e-14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.14359563691611e-13</c:v>
+                  <c:v>5.14359563691579e-13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4593387211701e-12</c:v>
+                  <c:v>4.45933872117015e-12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.25771825476099e-11</c:v>
+                  <c:v>3.25771825476091e-11</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.0404971676989e-10</c:v>
+                  <c:v>2.04049716769905e-10</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.11245533669287e-9</c:v>
+                  <c:v>1.1124553366929e-9</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.34891012336431e-9</c:v>
+                  <c:v>5.34891012336455e-9</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.29453545224561e-8</c:v>
+                  <c:v>2.2945354522457e-8</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.87129651088891e-8</c:v>
+                  <c:v>8.87129651088869e-8</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.11925926587369e-7</c:v>
+                  <c:v>3.11925926587362e-7</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.00545490064091e-6</c:v>
+                  <c:v>1.00545490064096e-6</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.99240787400395e-6</c:v>
+                  <c:v>2.99240787400385e-6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.27565424492839e-6</c:v>
+                  <c:v>8.27565424492833e-6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.13895570701836e-5</c:v>
+                  <c:v>2.13895570701833e-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.19359097121009e-5</c:v>
+                  <c:v>5.19359097120996e-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.000119023640442713</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.000258548297908716</c:v>
+                  <c:v>0.000258548297908722</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.000534403368308341</c:v>
+                  <c:v>0.000534403368308338</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0010547356705464</c:v>
+                  <c:v>0.00105473567054642</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.00199416591643631</c:v>
+                  <c:v>0.00199416591643632</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0.00362243963471677</c:v>
@@ -1049,7 +1059,7 @@
                   <c:v>0.0175281847112739</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.0278173981597843</c:v>
+                  <c:v>0.0278173981597845</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.0429082915292149</c:v>
@@ -1073,7 +1083,7 @@
                   <c:v>0.349150745771003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.46137599795825</c:v>
+                  <c:v>0.461375997958249</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0.599431650254897</c:v>
@@ -1082,7 +1092,7 @@
                   <c:v>0.76651999760087</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.965684111261721</c:v>
+                  <c:v>0.965684111261723</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.19971276066983</c:v>
@@ -1096,7 +1106,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1112,6 +1122,18 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:dLbls>
             <c:delete val="1"/>
           </c:dLbls>
@@ -1419,7 +1441,7 @@
                   <c:v>9.47943376253996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.6785978762008</c:v>
+                  <c:v>8.67859787620081</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>7.91262652560892</c:v>
@@ -1433,7 +1455,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1443,27 +1465,29 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192885504"/>
-        <c:axId val="183169408"/>
+        <c:axId val="26542202"/>
+        <c:axId val="459636003"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192885504"/>
+        <c:axId val="26542202"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1471,28 +1495,43 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
                   <a:t>Stock Price</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1501,27 +1540,44 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183169408"/>
+        <c:crossAx val="459636003"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183169408"/>
+        <c:axId val="459636003"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
               <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1529,28 +1585,43 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
                   <a:t>Option Price</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1559,23 +1630,40 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192885504"/>
+        <c:crossAx val="26542202"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
       <c:txPr>
         <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1589,12 +1677,27 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
     </a:p>
   </c:txPr>
@@ -1606,9 +1709,552 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -1617,20 +2263,18 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>391558</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>37029</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="图表 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
-        <a:ext cx="9306560" cy="6082030"/>
+        <a:ext cx="9311640" cy="6084570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1644,7 +2288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1654,39 +2298,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1765,160 +2409,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1930,21 +2545,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="J47"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="47" spans="10:10">
-      <c r="J47" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1959,17 +2568,17 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1977,7 +2586,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>7.79200408370461e-36</v>
+        <v>7.79200408370573e-36</v>
       </c>
       <c r="C2">
         <v>53.7129137649391</v>
@@ -1988,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.88963736615133e-32</v>
+        <v>1.88963736615224e-32</v>
       </c>
       <c r="C3">
         <v>52.7129137649391</v>
@@ -1999,7 +2608,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.64204401197933e-29</v>
+        <v>1.64204401197917e-29</v>
       </c>
       <c r="C4">
         <v>51.7129137649391</v>
@@ -2010,7 +2619,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>6.19302698109512e-27</v>
+        <v>6.19302698109668e-27</v>
       </c>
       <c r="C5">
         <v>50.7129137649391</v>
@@ -2021,7 +2630,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.17207164939983e-24</v>
+        <v>1.17207164939981e-24</v>
       </c>
       <c r="C6">
         <v>49.7129137649391</v>
@@ -2032,7 +2641,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.24529432761711e-22</v>
+        <v>1.24529432761695e-22</v>
       </c>
       <c r="C7">
         <v>48.7129137649391</v>
@@ -2043,7 +2652,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>8.11386665805116e-21</v>
+        <v>8.1138666580525e-21</v>
       </c>
       <c r="C8">
         <v>47.7129137649391</v>
@@ -2054,7 +2663,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>3.47944138742287e-19</v>
+        <v>3.47944138742241e-19</v>
       </c>
       <c r="C9">
         <v>46.7129137649391</v>
@@ -2065,7 +2674,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1.03991305206702e-17</v>
+        <v>1.03991305206695e-17</v>
       </c>
       <c r="C10">
         <v>45.7129137649391</v>
@@ -2076,7 +2685,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2.27041898475599e-16</v>
+        <v>2.27041898475594e-16</v>
       </c>
       <c r="C11">
         <v>44.7129137649391</v>
@@ -2087,7 +2696,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>3.76503371760478e-15</v>
+        <v>3.76503371760432e-15</v>
       </c>
       <c r="C12">
         <v>43.7129137649391</v>
@@ -2098,7 +2707,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>4.89963905171334e-14</v>
+        <v>4.89963905171338e-14</v>
       </c>
       <c r="C13">
         <v>42.7129137649391</v>
@@ -2109,7 +2718,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>5.14359563691611e-13</v>
+        <v>5.14359563691579e-13</v>
       </c>
       <c r="C14">
         <v>41.7129137649396</v>
@@ -2120,7 +2729,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>4.4593387211701e-12</v>
+        <v>4.45933872117015e-12</v>
       </c>
       <c r="C15">
         <v>40.7129137649436</v>
@@ -2131,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>3.25771825476099e-11</v>
+        <v>3.25771825476091e-11</v>
       </c>
       <c r="C16">
         <v>39.7129137649717</v>
@@ -2142,7 +2751,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>2.0404971676989e-10</v>
+        <v>2.04049716769905e-10</v>
       </c>
       <c r="C17">
         <v>38.7129137651431</v>
@@ -2153,7 +2762,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>1.11245533669287e-9</v>
+        <v>1.1124553366929e-9</v>
       </c>
       <c r="C18">
         <v>37.7129137660515</v>
@@ -2164,7 +2773,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>5.34891012336431e-9</v>
+        <v>5.34891012336455e-9</v>
       </c>
       <c r="C19">
         <v>36.712913770288</v>
@@ -2175,7 +2784,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>2.29453545224561e-8</v>
+        <v>2.2945354522457e-8</v>
       </c>
       <c r="C20">
         <v>35.7129137878844</v>
@@ -2186,7 +2795,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>8.87129651088891e-8</v>
+        <v>8.87129651088869e-8</v>
       </c>
       <c r="C21">
         <v>34.7129138536521</v>
@@ -2197,7 +2806,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>3.11925926587369e-7</v>
+        <v>3.11925926587362e-7</v>
       </c>
       <c r="C22">
         <v>33.712914076865</v>
@@ -2208,7 +2817,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>1.00545490064091e-6</v>
+        <v>1.00545490064096e-6</v>
       </c>
       <c r="C23">
         <v>32.712914770394</v>
@@ -2219,7 +2828,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2.99240787400395e-6</v>
+        <v>2.99240787400385e-6</v>
       </c>
       <c r="C24">
         <v>31.712916757347</v>
@@ -2230,7 +2839,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>8.27565424492839e-6</v>
+        <v>8.27565424492833e-6</v>
       </c>
       <c r="C25">
         <v>30.7129220405933</v>
@@ -2241,7 +2850,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>2.13895570701836e-5</v>
+        <v>2.13895570701833e-5</v>
       </c>
       <c r="C26">
         <v>29.7129351544962</v>
@@ -2252,7 +2861,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>5.19359097121009e-5</v>
+        <v>5.19359097120996e-5</v>
       </c>
       <c r="C27">
         <v>28.7129657008488</v>
@@ -2274,7 +2883,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>0.000258548297908716</v>
+        <v>0.000258548297908722</v>
       </c>
       <c r="C29">
         <v>26.713172313237</v>
@@ -2285,7 +2894,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0.000534403368308341</v>
+        <v>0.000534403368308338</v>
       </c>
       <c r="C30">
         <v>25.7134481683074</v>
@@ -2296,7 +2905,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.0010547356705464</v>
+        <v>0.00105473567054642</v>
       </c>
       <c r="C31">
         <v>24.7139685006096</v>
@@ -2307,7 +2916,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0.00199416591643631</v>
+        <v>0.00199416591643632</v>
       </c>
       <c r="C32">
         <v>23.7149079308555</v>
@@ -2362,7 +2971,7 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.0278173981597843</v>
+        <v>0.0278173981597845</v>
       </c>
       <c r="C37">
         <v>18.7407311630989</v>
@@ -2450,7 +3059,7 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0.46137599795825</v>
+        <v>0.461375997958249</v>
       </c>
       <c r="C45">
         <v>11.1742897628973</v>
@@ -2483,10 +3092,10 @@
         <v>56</v>
       </c>
       <c r="B48">
-        <v>0.965684111261721</v>
+        <v>0.965684111261723</v>
       </c>
       <c r="C48">
-        <v>8.6785978762008</v>
+        <v>8.67859787620081</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2523,7 +3132,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>